--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2327644.750958541</v>
+        <v>-2328293.110185346</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.40356150710434</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>72.40356150710434</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>72.40356150710434</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.105504016099259</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>56.6675529593582</v>
+        <v>63.77305697545739</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.80690084956996</v>
+        <v>11.80690084956988</v>
       </c>
       <c r="V12" t="n">
-        <v>18.68115031993861</v>
+        <v>18.68115031993852</v>
       </c>
       <c r="W12" t="n">
-        <v>37.57554633143295</v>
+        <v>37.57554633143286</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.556120159855345</v>
+        <v>6.556120159855261</v>
       </c>
       <c r="T13" t="n">
-        <v>13.00701368779524</v>
+        <v>13.00701368779516</v>
       </c>
       <c r="U13" t="n">
-        <v>72.18913543452338</v>
+        <v>72.18913543452329</v>
       </c>
       <c r="V13" t="n">
-        <v>38.01820649434134</v>
+        <v>38.01820649434126</v>
       </c>
       <c r="W13" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="X13" t="n">
-        <v>11.59021855955049</v>
+        <v>11.59021855955041</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.465216522608131</v>
+        <v>4.465216522608046</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="F14" t="n">
-        <v>72.40356150710434</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>72.40356150710434</v>
+        <v>63.77305697545742</v>
       </c>
       <c r="H14" t="n">
-        <v>72.40356150710434</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.105504016099259</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>56.66755295935812</v>
+        <v>72.40356150710426</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.80690084956996</v>
+        <v>11.80690084956988</v>
       </c>
       <c r="V15" t="n">
-        <v>18.68115031993861</v>
+        <v>18.68115031993852</v>
       </c>
       <c r="W15" t="n">
-        <v>37.57554633143295</v>
+        <v>37.57554633143286</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.556120159855345</v>
+        <v>6.556120159855261</v>
       </c>
       <c r="T16" t="n">
-        <v>13.00701368779524</v>
+        <v>13.00701368779516</v>
       </c>
       <c r="U16" t="n">
-        <v>72.18913543452338</v>
+        <v>72.18913543452329</v>
       </c>
       <c r="V16" t="n">
-        <v>38.01820649434134</v>
+        <v>38.01820649434126</v>
       </c>
       <c r="W16" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="X16" t="n">
-        <v>11.59021855955049</v>
+        <v>11.59021855955041</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.465216522608131</v>
+        <v>4.465216522608046</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.88964134293053</v>
+        <v>34.88964134293047</v>
       </c>
       <c r="C17" t="n">
-        <v>17.42869145045751</v>
+        <v>17.42869145045745</v>
       </c>
       <c r="D17" t="n">
-        <v>6.838841300132913</v>
+        <v>6.838841300132856</v>
       </c>
       <c r="E17" t="n">
-        <v>34.08616975171174</v>
+        <v>34.08616975171168</v>
       </c>
       <c r="F17" t="n">
-        <v>59.0318454211608</v>
+        <v>59.03184542116093</v>
       </c>
       <c r="G17" t="n">
-        <v>67.03114514009147</v>
+        <v>67.03114514009141</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.396768396862967</v>
+        <v>1.39676839686291</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88690035791899</v>
+        <v>21.88690035791893</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.39373833550354</v>
+        <v>38.39373833550349</v>
       </c>
     </row>
     <row r="18">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.88964134293053</v>
+        <v>34.88964134293047</v>
       </c>
       <c r="C20" t="n">
-        <v>17.42869145045751</v>
+        <v>17.42869145045745</v>
       </c>
       <c r="D20" t="n">
-        <v>6.838841300132913</v>
+        <v>6.838841300132856</v>
       </c>
       <c r="E20" t="n">
-        <v>34.08616975171174</v>
+        <v>34.08616975171168</v>
       </c>
       <c r="F20" t="n">
-        <v>59.03184542116139</v>
+        <v>59.03184542116134</v>
       </c>
       <c r="G20" t="n">
-        <v>67.0311451400915</v>
+        <v>67.03114514009144</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.396768396862967</v>
+        <v>1.39676839686291</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88690035791899</v>
+        <v>21.88690035791893</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.39373833550354</v>
+        <v>38.39373833550349</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.88964134293053</v>
+        <v>34.88964134293047</v>
       </c>
       <c r="C23" t="n">
-        <v>17.42869145045751</v>
+        <v>17.42869145045745</v>
       </c>
       <c r="D23" t="n">
-        <v>6.838841300132913</v>
+        <v>6.838841300132856</v>
       </c>
       <c r="E23" t="n">
-        <v>34.08616975171174</v>
+        <v>34.08616975171168</v>
       </c>
       <c r="F23" t="n">
-        <v>59.03184542116139</v>
+        <v>59.03184542116134</v>
       </c>
       <c r="G23" t="n">
-        <v>67.0311451400915</v>
+        <v>67.03114514009144</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.396768396862967</v>
+        <v>1.39676839686291</v>
       </c>
       <c r="X23" t="n">
-        <v>21.88690035791899</v>
+        <v>21.88690035791893</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.39373833550354</v>
+        <v>38.39373833550349</v>
       </c>
     </row>
     <row r="24">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.5089008178947</v>
+        <v>161.5089008178946</v>
       </c>
       <c r="C26" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D26" t="n">
-        <v>133.4581007750971</v>
+        <v>133.458100775097</v>
       </c>
       <c r="E26" t="n">
-        <v>160.7054292266759</v>
+        <v>160.7054292266758</v>
       </c>
       <c r="F26" t="n">
         <v>185.6511048961255</v>
@@ -2570,7 +2570,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H26" t="n">
-        <v>113.8728323920994</v>
+        <v>113.8728323920993</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.08652069789111</v>
+        <v>30.08652069789107</v>
       </c>
       <c r="V26" t="n">
         <v>106.527317624549</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>4.701396833470715</v>
+        <v>4.701396833470687</v>
       </c>
       <c r="V27" t="n">
-        <v>11.57564630383936</v>
+        <v>11.57564630383933</v>
       </c>
       <c r="W27" t="n">
-        <v>30.4700423153337</v>
+        <v>30.47004231533367</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>5.901509671695996</v>
+        <v>5.901509671695968</v>
       </c>
       <c r="U28" t="n">
-        <v>65.08363141842413</v>
+        <v>65.0836314184241</v>
       </c>
       <c r="V28" t="n">
-        <v>30.9127024782421</v>
+        <v>30.91270247824207</v>
       </c>
       <c r="W28" t="n">
-        <v>65.2980574910051</v>
+        <v>65.29805749100507</v>
       </c>
       <c r="X28" t="n">
-        <v>4.484714543451247</v>
+        <v>4.484714543451219</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.5089008178946</v>
+        <v>161.5089008178947</v>
       </c>
       <c r="C32" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D32" t="n">
-        <v>133.458100775097</v>
+        <v>133.4581007750971</v>
       </c>
       <c r="E32" t="n">
-        <v>160.7054292266758</v>
+        <v>160.7054292266759</v>
       </c>
       <c r="F32" t="n">
         <v>185.6511048961255</v>
@@ -3044,7 +3044,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H32" t="n">
-        <v>113.8728323920993</v>
+        <v>113.8728323920994</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.08652069789107</v>
+        <v>30.0865206978911</v>
       </c>
       <c r="V32" t="n">
         <v>106.527317624549</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>4.701396833470687</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V33" t="n">
-        <v>11.57564630383933</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W33" t="n">
-        <v>30.47004231533367</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.901509671695968</v>
+        <v>5.901509671695996</v>
       </c>
       <c r="U34" t="n">
-        <v>65.0836314184241</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V34" t="n">
-        <v>30.91270247824207</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W34" t="n">
-        <v>65.29805749100507</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X34" t="n">
-        <v>4.484714543451219</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.0935890264971</v>
+        <v>138.0935890264972</v>
       </c>
       <c r="C35" t="n">
         <v>120.6326391340241</v>
       </c>
       <c r="D35" t="n">
-        <v>110.0427889836995</v>
+        <v>110.0427889836996</v>
       </c>
       <c r="E35" t="n">
-        <v>137.2901174352783</v>
+        <v>137.2901174352784</v>
       </c>
       <c r="F35" t="n">
-        <v>162.2357931047279</v>
+        <v>162.235793104728</v>
       </c>
       <c r="G35" t="n">
-        <v>170.235092823658</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H35" t="n">
-        <v>90.45752060070177</v>
+        <v>90.45752060070186</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.671208906493522</v>
+        <v>6.671208906493604</v>
       </c>
       <c r="V35" t="n">
-        <v>83.11200583315141</v>
+        <v>83.1120058331515</v>
       </c>
       <c r="W35" t="n">
-        <v>104.6007160804295</v>
+        <v>104.6007160804296</v>
       </c>
       <c r="X35" t="n">
-        <v>125.0908480414855</v>
+        <v>125.0908480414856</v>
       </c>
       <c r="Y35" t="n">
-        <v>141.5976860190701</v>
+        <v>141.5976860190702</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>7.054730523936115</v>
+        <v>7.0547305239362</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>41.66831962702655</v>
+        <v>41.66831962702663</v>
       </c>
       <c r="V37" t="n">
-        <v>7.497390686844511</v>
+        <v>7.497390686844597</v>
       </c>
       <c r="W37" t="n">
-        <v>41.88274569960751</v>
+        <v>41.8827456996076</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>162.2357931047279</v>
       </c>
       <c r="G38" t="n">
-        <v>170.235092823658</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H38" t="n">
         <v>90.45752060070177</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.671208906493522</v>
+        <v>6.671208906493518</v>
       </c>
       <c r="V38" t="n">
         <v>83.11200583315141</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>152.0621061470418</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="C11" t="n">
-        <v>152.0621061470418</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="D11" t="n">
-        <v>78.92719553380506</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="E11" t="n">
-        <v>5.792284920568347</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="F11" t="n">
-        <v>5.792284920568347</v>
+        <v>78.92719553380496</v>
       </c>
       <c r="G11" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H11" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I11" t="n">
-        <v>25.71165856611159</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J11" t="n">
-        <v>45.32605468313665</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K11" t="n">
-        <v>45.32605468313665</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L11" t="n">
-        <v>90.66676124713435</v>
+        <v>51.1329914845661</v>
       </c>
       <c r="M11" t="n">
-        <v>148.8980748510278</v>
+        <v>109.3643050884596</v>
       </c>
       <c r="N11" t="n">
-        <v>148.8980748510278</v>
+        <v>109.3643050884596</v>
       </c>
       <c r="O11" t="n">
-        <v>204.3697334960814</v>
+        <v>164.8359637335133</v>
       </c>
       <c r="P11" t="n">
-        <v>248.2722267190321</v>
+        <v>208.738456956464</v>
       </c>
       <c r="Q11" t="n">
-        <v>285.8598345919605</v>
+        <v>249.7968134734048</v>
       </c>
       <c r="R11" t="n">
-        <v>289.6142460284174</v>
+        <v>274.9240679802544</v>
       </c>
       <c r="S11" t="n">
-        <v>289.6142460284174</v>
+        <v>289.614246028417</v>
       </c>
       <c r="T11" t="n">
-        <v>282.4369692444786</v>
+        <v>289.614246028417</v>
       </c>
       <c r="U11" t="n">
-        <v>282.4369692444786</v>
+        <v>289.614246028417</v>
       </c>
       <c r="V11" t="n">
-        <v>225.1970167602785</v>
+        <v>225.1970167602782</v>
       </c>
       <c r="W11" t="n">
-        <v>225.1970167602785</v>
+        <v>225.1970167602782</v>
       </c>
       <c r="X11" t="n">
-        <v>225.1970167602785</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="Y11" t="n">
-        <v>225.1970167602785</v>
+        <v>152.0621061470416</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52.90267556839147</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C12" t="n">
-        <v>52.90267556839147</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D12" t="n">
-        <v>52.90267556839147</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E12" t="n">
-        <v>52.90267556839147</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F12" t="n">
-        <v>52.90267556839147</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G12" t="n">
-        <v>52.90267556839147</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H12" t="n">
-        <v>52.90267556839147</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I12" t="n">
-        <v>52.90267556839147</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J12" t="n">
-        <v>52.90267556839147</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K12" t="n">
-        <v>52.90267556839147</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L12" t="n">
-        <v>52.90267556839147</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M12" t="n">
-        <v>52.90267556839147</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N12" t="n">
-        <v>52.90267556839147</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="O12" t="n">
-        <v>52.90267556839147</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="P12" t="n">
-        <v>52.90267556839147</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.90267556839147</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="R12" t="n">
-        <v>52.90267556839147</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="S12" t="n">
-        <v>74.54339350737796</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="T12" t="n">
-        <v>74.54339350737796</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="U12" t="n">
-        <v>62.61723103306487</v>
+        <v>62.6172310330647</v>
       </c>
       <c r="V12" t="n">
-        <v>43.74738222504607</v>
+        <v>43.74738222504598</v>
       </c>
       <c r="W12" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X12" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C13" t="n">
-        <v>5.792284920568347</v>
+        <v>11.18751771495121</v>
       </c>
       <c r="D13" t="n">
-        <v>5.792284920568347</v>
+        <v>11.18751771495121</v>
       </c>
       <c r="E13" t="n">
-        <v>5.792284920568347</v>
+        <v>11.18751771495121</v>
       </c>
       <c r="F13" t="n">
-        <v>5.792284920568347</v>
+        <v>11.18751771495121</v>
       </c>
       <c r="G13" t="n">
-        <v>5.792284920568347</v>
+        <v>11.18751771495121</v>
       </c>
       <c r="H13" t="n">
-        <v>58.85308761302905</v>
+        <v>11.18751771495121</v>
       </c>
       <c r="I13" t="n">
-        <v>58.85308761302905</v>
+        <v>11.18751771495121</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5548558985307</v>
+        <v>11.18751771495121</v>
       </c>
       <c r="K13" t="n">
-        <v>109.5548558985307</v>
+        <v>11.18751771495121</v>
       </c>
       <c r="L13" t="n">
-        <v>109.5548558985307</v>
+        <v>82.86704360698442</v>
       </c>
       <c r="M13" t="n">
-        <v>109.5548558985307</v>
+        <v>82.86704360698442</v>
       </c>
       <c r="N13" t="n">
-        <v>109.5548558985307</v>
+        <v>82.86704360698442</v>
       </c>
       <c r="O13" t="n">
-        <v>109.5548558985307</v>
+        <v>154.5465694990176</v>
       </c>
       <c r="P13" t="n">
-        <v>109.5548558985307</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.234381790564</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="R13" t="n">
-        <v>226.2260953910515</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="S13" t="n">
-        <v>219.603751795238</v>
+        <v>219.6037517952375</v>
       </c>
       <c r="T13" t="n">
-        <v>206.4653541307983</v>
+        <v>206.4653541307979</v>
       </c>
       <c r="U13" t="n">
-        <v>133.5470355100676</v>
+        <v>133.5470355100673</v>
       </c>
       <c r="V13" t="n">
-        <v>95.14480672790468</v>
+        <v>95.14480672790441</v>
       </c>
       <c r="W13" t="n">
-        <v>22.00989611466797</v>
+        <v>22.00989611466779</v>
       </c>
       <c r="X13" t="n">
-        <v>10.30260464037454</v>
+        <v>10.30260464037445</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>225.1970167602786</v>
+        <v>216.4793354151804</v>
       </c>
       <c r="C14" t="n">
-        <v>225.1970167602786</v>
+        <v>143.3444248019438</v>
       </c>
       <c r="D14" t="n">
-        <v>225.1970167602786</v>
+        <v>143.3444248019438</v>
       </c>
       <c r="E14" t="n">
-        <v>225.1970167602786</v>
+        <v>70.20951418870715</v>
       </c>
       <c r="F14" t="n">
-        <v>152.0621061470418</v>
+        <v>70.20951418870715</v>
       </c>
       <c r="G14" t="n">
-        <v>78.92719553380506</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H14" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I14" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J14" t="n">
-        <v>5.792284920568347</v>
+        <v>74.44670462156054</v>
       </c>
       <c r="K14" t="n">
-        <v>53.70378817849328</v>
+        <v>122.3582078794855</v>
       </c>
       <c r="L14" t="n">
-        <v>99.04449474249098</v>
+        <v>122.3582078794855</v>
       </c>
       <c r="M14" t="n">
-        <v>157.2758083463844</v>
+        <v>180.589521483379</v>
       </c>
       <c r="N14" t="n">
-        <v>209.3341416394794</v>
+        <v>180.589521483379</v>
       </c>
       <c r="O14" t="n">
-        <v>274.9240679802548</v>
+        <v>180.589521483379</v>
       </c>
       <c r="P14" t="n">
-        <v>274.9240679802548</v>
+        <v>180.589521483379</v>
       </c>
       <c r="Q14" t="n">
-        <v>274.9240679802548</v>
+        <v>218.1771293563075</v>
       </c>
       <c r="R14" t="n">
-        <v>274.9240679802548</v>
+        <v>289.614246028417</v>
       </c>
       <c r="S14" t="n">
-        <v>289.6142460284174</v>
+        <v>289.614246028417</v>
       </c>
       <c r="T14" t="n">
-        <v>282.4369692444787</v>
+        <v>289.614246028417</v>
       </c>
       <c r="U14" t="n">
-        <v>282.4369692444787</v>
+        <v>289.614246028417</v>
       </c>
       <c r="V14" t="n">
-        <v>282.4369692444787</v>
+        <v>289.614246028417</v>
       </c>
       <c r="W14" t="n">
-        <v>282.4369692444787</v>
+        <v>289.614246028417</v>
       </c>
       <c r="X14" t="n">
-        <v>282.4369692444787</v>
+        <v>289.614246028417</v>
       </c>
       <c r="Y14" t="n">
-        <v>225.1970167602786</v>
+        <v>216.4793354151804</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C15" t="n">
-        <v>8.535765955178533</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D15" t="n">
-        <v>74.54339350737796</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E15" t="n">
-        <v>74.54339350737796</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F15" t="n">
-        <v>74.54339350737796</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G15" t="n">
-        <v>74.54339350737796</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H15" t="n">
-        <v>74.54339350737796</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I15" t="n">
-        <v>74.54339350737796</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J15" t="n">
-        <v>74.54339350737796</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K15" t="n">
-        <v>74.54339350737796</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L15" t="n">
-        <v>74.54339350737796</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M15" t="n">
-        <v>74.54339350737796</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N15" t="n">
-        <v>74.54339350737796</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="O15" t="n">
-        <v>74.54339350737796</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="P15" t="n">
-        <v>74.54339350737796</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.54339350737796</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="R15" t="n">
-        <v>74.54339350737796</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="S15" t="n">
-        <v>74.54339350737796</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="T15" t="n">
-        <v>74.54339350737796</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="U15" t="n">
-        <v>62.61723103306487</v>
+        <v>62.6172310330647</v>
       </c>
       <c r="V15" t="n">
-        <v>43.74738222504607</v>
+        <v>43.74738222504598</v>
       </c>
       <c r="W15" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X15" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.73686700164222</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C16" t="n">
-        <v>39.73686700164222</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D16" t="n">
-        <v>39.73686700164222</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E16" t="n">
-        <v>39.73686700164222</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F16" t="n">
-        <v>39.73686700164222</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G16" t="n">
-        <v>39.73686700164222</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H16" t="n">
-        <v>39.73686700164222</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I16" t="n">
-        <v>39.73686700164222</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J16" t="n">
-        <v>39.73686700164222</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K16" t="n">
-        <v>39.73686700164222</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L16" t="n">
-        <v>39.73686700164222</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M16" t="n">
-        <v>82.86704360698488</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N16" t="n">
-        <v>82.86704360698488</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="O16" t="n">
-        <v>154.5465694990182</v>
+        <v>149.1513367046348</v>
       </c>
       <c r="P16" t="n">
-        <v>226.2260953910515</v>
+        <v>220.830862596668</v>
       </c>
       <c r="Q16" t="n">
-        <v>226.2260953910515</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="R16" t="n">
-        <v>226.2260953910515</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="S16" t="n">
-        <v>219.603751795238</v>
+        <v>219.6037517952375</v>
       </c>
       <c r="T16" t="n">
-        <v>206.4653541307983</v>
+        <v>206.4653541307979</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5470355100676</v>
+        <v>133.5470355100673</v>
       </c>
       <c r="V16" t="n">
-        <v>95.14480672790468</v>
+        <v>95.14480672790441</v>
       </c>
       <c r="W16" t="n">
-        <v>22.00989611466797</v>
+        <v>22.00989611466779</v>
       </c>
       <c r="X16" t="n">
-        <v>10.30260464037454</v>
+        <v>10.30260464037445</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0717728635528</v>
+        <v>192.0717728635527</v>
       </c>
       <c r="C17" t="n">
-        <v>174.467034024707</v>
+        <v>174.4670340247069</v>
       </c>
       <c r="D17" t="n">
         <v>167.5591135195222</v>
@@ -5501,64 +5501,64 @@
         <v>133.1286390228437</v>
       </c>
       <c r="F17" t="n">
-        <v>73.50051233480215</v>
+        <v>73.50051233480208</v>
       </c>
       <c r="G17" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H17" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I17" t="n">
-        <v>77.47181081260165</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J17" t="n">
-        <v>77.47181081260165</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K17" t="n">
-        <v>77.47181081260165</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L17" t="n">
-        <v>77.47181081260165</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M17" t="n">
-        <v>77.47181081260165</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="N17" t="n">
-        <v>77.47181081260165</v>
+        <v>126.3641718124396</v>
       </c>
       <c r="O17" t="n">
-        <v>126.3641718124398</v>
+        <v>126.3641718124396</v>
       </c>
       <c r="P17" t="n">
-        <v>126.3641718124398</v>
+        <v>126.3641718124396</v>
       </c>
       <c r="Q17" t="n">
-        <v>198.0436977044731</v>
+        <v>198.0436977044728</v>
       </c>
       <c r="R17" t="n">
-        <v>269.7232235965064</v>
+        <v>198.0436977044728</v>
       </c>
       <c r="S17" t="n">
-        <v>269.7232235965064</v>
+        <v>198.0436977044728</v>
       </c>
       <c r="T17" t="n">
-        <v>269.7232235965064</v>
+        <v>198.0436977044728</v>
       </c>
       <c r="U17" t="n">
-        <v>269.7232235965064</v>
+        <v>269.723223596506</v>
       </c>
       <c r="V17" t="n">
-        <v>289.6142460284174</v>
+        <v>289.614246028417</v>
       </c>
       <c r="W17" t="n">
-        <v>288.2033688598691</v>
+        <v>288.2033688598688</v>
       </c>
       <c r="X17" t="n">
-        <v>266.095388700355</v>
+        <v>266.0953887003547</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.313834826109</v>
+        <v>227.3138348261087</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="O18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="P18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="R18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="S18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="T18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="U18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="V18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="W18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="O19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="P19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="R19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="S19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="T19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="U19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="V19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="W19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>192.0717728635531</v>
       </c>
       <c r="C20" t="n">
-        <v>174.467034024707</v>
+        <v>174.4670340247071</v>
       </c>
       <c r="D20" t="n">
-        <v>167.5591135195224</v>
+        <v>167.5591135195225</v>
       </c>
       <c r="E20" t="n">
-        <v>133.1286390228439</v>
+        <v>133.128639022844</v>
       </c>
       <c r="F20" t="n">
-        <v>73.50051233480218</v>
+        <v>73.50051233480211</v>
       </c>
       <c r="G20" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H20" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I20" t="n">
-        <v>5.792284920568347</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="J20" t="n">
-        <v>5.792284920568347</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="K20" t="n">
-        <v>5.792284920568347</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="L20" t="n">
-        <v>5.792284920568347</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="M20" t="n">
-        <v>5.792284920568347</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="N20" t="n">
-        <v>5.792284920568347</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="O20" t="n">
-        <v>5.792284920568347</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="P20" t="n">
-        <v>5.792284920568347</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.792284920568347</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="R20" t="n">
-        <v>77.47181081260165</v>
+        <v>149.1513367046348</v>
       </c>
       <c r="S20" t="n">
-        <v>149.151336704635</v>
+        <v>220.830862596668</v>
       </c>
       <c r="T20" t="n">
-        <v>198.0436977044731</v>
+        <v>220.830862596668</v>
       </c>
       <c r="U20" t="n">
-        <v>269.7232235965064</v>
+        <v>269.723223596506</v>
       </c>
       <c r="V20" t="n">
-        <v>289.6142460284174</v>
+        <v>289.614246028417</v>
       </c>
       <c r="W20" t="n">
-        <v>288.2033688598691</v>
+        <v>288.203368859869</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0953887003551</v>
+        <v>266.095388700355</v>
       </c>
       <c r="Y20" t="n">
         <v>227.3138348261091</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="O21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="P21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="R21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="S21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="T21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="U21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="V21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="W21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="C22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="D22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="O22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="P22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="R22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="S22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="T22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="U22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="V22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="W22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="X22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.792284920568347</v>
+        <v>5.792284920568341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.0717728635532</v>
+        <v>192.0717728635529</v>
       </c>
       <c r="C23" t="n">
-        <v>174.4670340247072</v>
+        <v>174.4670340247069</v>
       </c>
       <c r="D23" t="n">
-        <v>167.5591135195224</v>
+        <v>167.5591135195222</v>
       </c>
       <c r="E23" t="n">
-        <v>133.1286390228438</v>
+        <v>133.1286390228437</v>
       </c>
       <c r="F23" t="n">
-        <v>73.50051233480218</v>
+        <v>73.50051233480212</v>
       </c>
       <c r="G23" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H23" t="n">
-        <v>18.41124773260449</v>
+        <v>18.41124773260454</v>
       </c>
       <c r="I23" t="n">
-        <v>18.41124773260449</v>
+        <v>18.41124773260454</v>
       </c>
       <c r="J23" t="n">
-        <v>18.41124773260449</v>
+        <v>18.41124773260454</v>
       </c>
       <c r="K23" t="n">
-        <v>18.41124773260449</v>
+        <v>18.41124773260454</v>
       </c>
       <c r="L23" t="n">
-        <v>18.41124773260449</v>
+        <v>18.41124773260454</v>
       </c>
       <c r="M23" t="n">
-        <v>18.41124773260449</v>
+        <v>18.41124773260454</v>
       </c>
       <c r="N23" t="n">
-        <v>18.41124773260449</v>
+        <v>90.09077362463781</v>
       </c>
       <c r="O23" t="n">
-        <v>18.41124773260449</v>
+        <v>90.09077362463781</v>
       </c>
       <c r="P23" t="n">
-        <v>18.41124773260449</v>
+        <v>90.09077362463781</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.41124773260449</v>
+        <v>146.2551942443507</v>
       </c>
       <c r="R23" t="n">
-        <v>90.09077362463788</v>
+        <v>146.2551942443507</v>
       </c>
       <c r="S23" t="n">
-        <v>161.7702995166713</v>
+        <v>217.934720136384</v>
       </c>
       <c r="T23" t="n">
-        <v>198.0436977044733</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="U23" t="n">
-        <v>269.7232235965067</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="V23" t="n">
-        <v>289.6142460284177</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="W23" t="n">
-        <v>288.2033688598693</v>
+        <v>288.2033688598689</v>
       </c>
       <c r="X23" t="n">
-        <v>266.0953887003551</v>
+        <v>266.0953887003548</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3138348261091</v>
+        <v>227.3138348261088</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="R24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="S24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="T24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="U24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="V24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="W24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="R25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="S25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="T25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="U25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="V25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="W25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.792284920568354</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>975.2411681339775</v>
+        <v>975.2411681339781</v>
       </c>
       <c r="C26" t="n">
-        <v>829.7381874012286</v>
+        <v>829.7381874012291</v>
       </c>
       <c r="D26" t="n">
-        <v>694.9320250021407</v>
+        <v>694.9320250021411</v>
       </c>
       <c r="E26" t="n">
-        <v>532.603308611559</v>
+        <v>532.6033086115594</v>
       </c>
       <c r="F26" t="n">
-        <v>345.076940029614</v>
+        <v>345.0769400296144</v>
       </c>
       <c r="G26" t="n">
         <v>149.4704707214771</v>
@@ -6221,31 +6221,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I26" t="n">
-        <v>61.40123032063605</v>
+        <v>60.94433209514122</v>
       </c>
       <c r="J26" t="n">
-        <v>304.4957480179195</v>
+        <v>136.6332007720716</v>
       </c>
       <c r="K26" t="n">
-        <v>359.4417002517827</v>
+        <v>191.5791530059348</v>
       </c>
       <c r="L26" t="n">
-        <v>785.7283705288203</v>
+        <v>191.5791530059348</v>
       </c>
       <c r="M26" t="n">
-        <v>850.9941331086519</v>
+        <v>191.5791530059348</v>
       </c>
       <c r="N26" t="n">
-        <v>1277.28080338569</v>
+        <v>617.8658232829724</v>
       </c>
       <c r="O26" t="n">
-        <v>1348.610901174414</v>
+        <v>1044.15249356001</v>
       </c>
       <c r="P26" t="n">
-        <v>1348.610901174414</v>
+        <v>1413.670156848667</v>
       </c>
       <c r="Q26" t="n">
-        <v>1603.424798776587</v>
+        <v>1668.484054450839</v>
       </c>
       <c r="R26" t="n">
         <v>1700.645757933627</v>
@@ -6300,46 +6300,46 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="P27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="R27" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="S27" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="T27" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="U27" t="n">
-        <v>76.91780024377381</v>
+        <v>76.91780024377375</v>
       </c>
       <c r="V27" t="n">
-        <v>65.22522821969365</v>
+        <v>65.22522821969362</v>
       </c>
       <c r="W27" t="n">
         <v>34.44740769915455</v>
@@ -6361,67 +6361,67 @@
         <v>34.44740769915455</v>
       </c>
       <c r="C28" t="n">
-        <v>34.44740769915455</v>
+        <v>87.88574624864307</v>
       </c>
       <c r="D28" t="n">
-        <v>34.44740769915455</v>
+        <v>87.88574624864307</v>
       </c>
       <c r="E28" t="n">
-        <v>34.44740769915455</v>
+        <v>87.88574624864307</v>
       </c>
       <c r="F28" t="n">
-        <v>34.44740769915455</v>
+        <v>87.88574624864307</v>
       </c>
       <c r="G28" t="n">
-        <v>34.44740769915455</v>
+        <v>140.7771643494263</v>
       </c>
       <c r="H28" t="n">
-        <v>34.44740769915455</v>
+        <v>140.7771643494263</v>
       </c>
       <c r="I28" t="n">
-        <v>34.44740769915455</v>
+        <v>140.7771643494263</v>
       </c>
       <c r="J28" t="n">
-        <v>34.44740769915455</v>
+        <v>140.7771643494263</v>
       </c>
       <c r="K28" t="n">
-        <v>34.44740769915455</v>
+        <v>140.7771643494263</v>
       </c>
       <c r="L28" t="n">
-        <v>34.44740769915455</v>
+        <v>140.7771643494263</v>
       </c>
       <c r="M28" t="n">
-        <v>34.44740769915455</v>
+        <v>140.7771643494263</v>
       </c>
       <c r="N28" t="n">
-        <v>34.44740769915455</v>
+        <v>140.7771643494263</v>
       </c>
       <c r="O28" t="n">
-        <v>34.44740769915455</v>
+        <v>140.7771643494263</v>
       </c>
       <c r="P28" t="n">
-        <v>58.25705630759546</v>
+        <v>140.7771643494263</v>
       </c>
       <c r="Q28" t="n">
-        <v>207.8621709343248</v>
+        <v>207.3182809166432</v>
       </c>
       <c r="R28" t="n">
-        <v>207.8621709343248</v>
+        <v>207.3182809166432</v>
       </c>
       <c r="S28" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="T28" t="n">
-        <v>201.9010500538238</v>
+        <v>201.9010500538237</v>
       </c>
       <c r="U28" t="n">
-        <v>136.1600082170318</v>
+        <v>136.1600082170317</v>
       </c>
       <c r="V28" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W28" t="n">
-        <v>38.97742238950935</v>
+        <v>38.97742238950932</v>
       </c>
       <c r="X28" t="n">
         <v>34.44740769915455</v>
@@ -6458,28 +6458,28 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I29" t="n">
-        <v>61.40123032063605</v>
+        <v>61.40123032063604</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0900989975664</v>
+        <v>304.4957480179194</v>
       </c>
       <c r="K29" t="n">
-        <v>192.0360512314296</v>
+        <v>680.3456586972358</v>
       </c>
       <c r="L29" t="n">
-        <v>618.3227215084672</v>
+        <v>1106.632328974273</v>
       </c>
       <c r="M29" t="n">
-        <v>1001.812650203297</v>
+        <v>1355.222146020921</v>
       </c>
       <c r="N29" t="n">
-        <v>1069.204435115586</v>
+        <v>1355.222146020921</v>
       </c>
       <c r="O29" t="n">
-        <v>1131.710542736578</v>
+        <v>1417.728253641912</v>
       </c>
       <c r="P29" t="n">
-        <v>1501.228206025234</v>
+        <v>1632.682848285797</v>
       </c>
       <c r="Q29" t="n">
         <v>1668.484054450839</v>
@@ -6528,10 +6528,10 @@
         <v>34.44740769915455</v>
       </c>
       <c r="F30" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G30" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H30" t="n">
         <v>81.66668593414828</v>
@@ -6619,25 +6619,25 @@
         <v>34.44740769915455</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4531041776624</v>
+        <v>94.52173417166517</v>
       </c>
       <c r="K31" t="n">
-        <v>174.4531041776624</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="L31" t="n">
-        <v>174.4531041776624</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="M31" t="n">
-        <v>174.4531041776624</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="N31" t="n">
-        <v>174.4531041776624</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="O31" t="n">
-        <v>174.4531041776624</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="P31" t="n">
-        <v>174.4531041776624</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="Q31" t="n">
         <v>207.8621709343248</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>975.2411681339775</v>
+        <v>975.2411681339772</v>
       </c>
       <c r="C32" t="n">
-        <v>829.7381874012284</v>
+        <v>829.7381874012281</v>
       </c>
       <c r="D32" t="n">
-        <v>694.9320250021406</v>
+        <v>694.9320250021401</v>
       </c>
       <c r="E32" t="n">
-        <v>532.603308611559</v>
+        <v>532.6033086115585</v>
       </c>
       <c r="F32" t="n">
-        <v>345.076940029614</v>
+        <v>345.0769400296135</v>
       </c>
       <c r="G32" t="n">
         <v>149.4704707214771</v>
@@ -6695,31 +6695,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I32" t="n">
-        <v>61.40123032063607</v>
+        <v>61.40123032063604</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0900989975665</v>
+        <v>137.0900989975664</v>
       </c>
       <c r="K32" t="n">
-        <v>192.0360512314297</v>
+        <v>192.0360512314296</v>
       </c>
       <c r="L32" t="n">
-        <v>192.0360512314297</v>
+        <v>618.3227215084672</v>
       </c>
       <c r="M32" t="n">
-        <v>374.2409158072627</v>
+        <v>1044.609391785505</v>
       </c>
       <c r="N32" t="n">
-        <v>800.5275860843003</v>
+        <v>1044.609391785505</v>
       </c>
       <c r="O32" t="n">
-        <v>1189.285078639063</v>
+        <v>1265.094987419485</v>
       </c>
       <c r="P32" t="n">
-        <v>1558.80274192772</v>
+        <v>1413.670156848667</v>
       </c>
       <c r="Q32" t="n">
-        <v>1603.424798776587</v>
+        <v>1668.484054450839</v>
       </c>
       <c r="R32" t="n">
         <v>1700.645757933627</v>
@@ -6743,7 +6743,7 @@
         <v>1305.061267758586</v>
       </c>
       <c r="Y32" t="n">
-        <v>1138.381471990437</v>
+        <v>1138.381471990436</v>
       </c>
     </row>
     <row r="33">
@@ -6777,43 +6777,43 @@
         <v>34.44740769915455</v>
       </c>
       <c r="J33" t="n">
-        <v>34.44740769915455</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="K33" t="n">
-        <v>34.44740769915455</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="L33" t="n">
-        <v>34.44740769915455</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="M33" t="n">
-        <v>34.44740769915455</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="N33" t="n">
-        <v>34.44740769915455</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="O33" t="n">
-        <v>34.44740769915455</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="P33" t="n">
-        <v>34.44740769915455</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.66668593414819</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="R33" t="n">
-        <v>81.66668593414819</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="S33" t="n">
-        <v>81.66668593414819</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="T33" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U33" t="n">
-        <v>76.91780024377375</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V33" t="n">
-        <v>65.22522821969362</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W33" t="n">
         <v>34.44740769915455</v>
@@ -6838,64 +6838,64 @@
         <v>34.44740769915455</v>
       </c>
       <c r="D34" t="n">
-        <v>34.44740769915455</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="E34" t="n">
-        <v>34.44740769915455</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="F34" t="n">
-        <v>34.44740769915455</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="G34" t="n">
-        <v>34.44740769915455</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="H34" t="n">
-        <v>34.44740769915455</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="I34" t="n">
-        <v>34.44740769915455</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="J34" t="n">
-        <v>34.44740769915455</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="K34" t="n">
-        <v>34.44740769915455</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="L34" t="n">
-        <v>34.44740769915455</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="M34" t="n">
-        <v>207.8621709343247</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="N34" t="n">
-        <v>207.8621709343247</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="O34" t="n">
-        <v>207.8621709343247</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="P34" t="n">
-        <v>207.8621709343247</v>
+        <v>106.3307808482544</v>
       </c>
       <c r="Q34" t="n">
-        <v>207.8621709343247</v>
+        <v>155.8360083578991</v>
       </c>
       <c r="R34" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="S34" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T34" t="n">
-        <v>201.9010500538237</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U34" t="n">
-        <v>136.1600082170317</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V34" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W34" t="n">
-        <v>38.97742238950932</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X34" t="n">
         <v>34.44740769915455</v>
@@ -6911,67 +6911,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>827.5379026594856</v>
+        <v>827.5379026594851</v>
       </c>
       <c r="C35" t="n">
-        <v>705.6867520190572</v>
+        <v>705.6867520190567</v>
       </c>
       <c r="D35" t="n">
-        <v>594.53241971229</v>
+        <v>594.5324197122894</v>
       </c>
       <c r="E35" t="n">
-        <v>455.8555334140291</v>
+        <v>455.8555334140284</v>
       </c>
       <c r="F35" t="n">
-        <v>291.9809949244049</v>
+        <v>291.9809949244041</v>
       </c>
       <c r="G35" t="n">
-        <v>120.026355708588</v>
+        <v>120.0263557085881</v>
       </c>
       <c r="H35" t="n">
         <v>28.65512277858621</v>
       </c>
       <c r="I35" t="n">
-        <v>78.7901040735513</v>
+        <v>78.79010407355122</v>
       </c>
       <c r="J35" t="n">
-        <v>177.6601314239653</v>
+        <v>345.0657804443181</v>
       </c>
       <c r="K35" t="n">
-        <v>255.7872423313121</v>
+        <v>423.1928913516648</v>
       </c>
       <c r="L35" t="n">
-        <v>331.3435565447317</v>
+        <v>777.8000357366692</v>
       </c>
       <c r="M35" t="n">
-        <v>685.9507009297359</v>
+        <v>866.2469569899844</v>
       </c>
       <c r="N35" t="n">
-        <v>1016.65849403852</v>
+        <v>920.5571291109181</v>
       </c>
       <c r="O35" t="n">
-        <v>1102.345760332995</v>
+        <v>1006.244395405394</v>
       </c>
       <c r="P35" t="n">
-        <v>1176.463861205368</v>
+        <v>1309.326332401972</v>
       </c>
       <c r="Q35" t="n">
-        <v>1244.267076727718</v>
+        <v>1309.326332401972</v>
       </c>
       <c r="R35" t="n">
-        <v>1364.669194558242</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="S35" t="n">
         <v>1409.574980255827</v>
       </c>
       <c r="T35" t="n">
-        <v>1432.75613892931</v>
+        <v>1432.756138929311</v>
       </c>
       <c r="U35" t="n">
         <v>1426.017544074267</v>
       </c>
       <c r="V35" t="n">
-        <v>1342.06602303068</v>
+        <v>1342.066023030679</v>
       </c>
       <c r="W35" t="n">
         <v>1236.408734060549</v>
@@ -6980,7 +6980,7 @@
         <v>1110.054342099452</v>
       </c>
       <c r="Y35" t="n">
-        <v>967.0263764236239</v>
+        <v>967.0263764236234</v>
       </c>
     </row>
     <row r="36">
@@ -7011,46 +7011,46 @@
         <v>28.65512277858621</v>
       </c>
       <c r="I36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="J36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="K36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="L36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="M36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="N36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="O36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="P36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="R36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="S36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="T36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="U36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="V36" t="n">
-        <v>35.78111320680451</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="W36" t="n">
         <v>28.65512277858621</v>
@@ -7096,40 +7096,40 @@
         <v>28.65512277858621</v>
       </c>
       <c r="K37" t="n">
-        <v>120.6232601659383</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L37" t="n">
-        <v>120.6232601659383</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M37" t="n">
-        <v>120.6232601659383</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N37" t="n">
-        <v>120.6232601659383</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O37" t="n">
-        <v>120.6232601659383</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="P37" t="n">
-        <v>120.6232601659383</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.6232601659383</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="R37" t="n">
-        <v>120.6232601659383</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="S37" t="n">
-        <v>120.6232601659383</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="T37" t="n">
-        <v>120.6232601659383</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="U37" t="n">
-        <v>78.53404842146705</v>
+        <v>78.53404842146722</v>
       </c>
       <c r="V37" t="n">
-        <v>70.9609265155635</v>
+        <v>70.96092651556359</v>
       </c>
       <c r="W37" t="n">
         <v>28.65512277858621</v>
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>827.5379026594859</v>
+        <v>827.5379026594854</v>
       </c>
       <c r="C38" t="n">
-        <v>705.6867520190575</v>
+        <v>705.6867520190571</v>
       </c>
       <c r="D38" t="n">
-        <v>594.5324197122903</v>
+        <v>594.5324197122899</v>
       </c>
       <c r="E38" t="n">
-        <v>455.8555334140294</v>
+        <v>455.855533414029</v>
       </c>
       <c r="F38" t="n">
-        <v>291.9809949244052</v>
+        <v>291.9809949244047</v>
       </c>
       <c r="G38" t="n">
         <v>120.026355708588</v>
       </c>
       <c r="H38" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I38" t="n">
-        <v>78.79010407355133</v>
+        <v>78.7901040735513</v>
       </c>
       <c r="J38" t="n">
-        <v>177.6601314239653</v>
+        <v>268.6774484781002</v>
       </c>
       <c r="K38" t="n">
-        <v>255.7872423313121</v>
+        <v>346.804559385447</v>
       </c>
       <c r="L38" t="n">
-        <v>525.9442675379257</v>
+        <v>422.3608735988665</v>
       </c>
       <c r="M38" t="n">
-        <v>817.2157368385315</v>
+        <v>736.1694505258886</v>
       </c>
       <c r="N38" t="n">
-        <v>907.7886804243033</v>
+        <v>1090.776594910893</v>
       </c>
       <c r="O38" t="n">
-        <v>993.4759467187788</v>
+        <v>1176.463861205368</v>
       </c>
       <c r="P38" t="n">
-        <v>1067.594047591151</v>
+        <v>1176.463861205368</v>
       </c>
       <c r="Q38" t="n">
-        <v>1309.326332401972</v>
+        <v>1244.267076727719</v>
       </c>
       <c r="R38" t="n">
         <v>1364.669194558243</v>
       </c>
       <c r="S38" t="n">
-        <v>1409.574980255828</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T38" t="n">
         <v>1432.756138929311</v>
@@ -7214,10 +7214,10 @@
         <v>1236.408734060549</v>
       </c>
       <c r="X38" t="n">
-        <v>1110.054342099453</v>
+        <v>1110.054342099452</v>
       </c>
       <c r="Y38" t="n">
-        <v>967.0263764236244</v>
+        <v>967.0263764236239</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="C39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="D39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="E39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="F39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="G39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="I39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="J39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="K39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="L39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="M39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="N39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="O39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="P39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="R39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="S39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="T39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="U39" t="n">
-        <v>35.78111320680453</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="V39" t="n">
-        <v>35.78111320680453</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="W39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680451</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C40" t="n">
-        <v>28.65512277858623</v>
+        <v>105.2746200015583</v>
       </c>
       <c r="D40" t="n">
-        <v>28.65512277858623</v>
+        <v>105.2746200015583</v>
       </c>
       <c r="E40" t="n">
-        <v>28.65512277858623</v>
+        <v>105.2746200015583</v>
       </c>
       <c r="F40" t="n">
-        <v>28.65512277858623</v>
+        <v>105.2746200015583</v>
       </c>
       <c r="G40" t="n">
-        <v>28.65512277858623</v>
+        <v>105.2746200015583</v>
       </c>
       <c r="H40" t="n">
-        <v>111.9315331204688</v>
+        <v>105.2746200015583</v>
       </c>
       <c r="I40" t="n">
-        <v>120.6232601659383</v>
+        <v>105.2746200015583</v>
       </c>
       <c r="J40" t="n">
-        <v>120.6232601659383</v>
+        <v>105.2746200015583</v>
       </c>
       <c r="K40" t="n">
-        <v>120.6232601659383</v>
+        <v>105.2746200015583</v>
       </c>
       <c r="L40" t="n">
-        <v>120.6232601659383</v>
+        <v>105.2746200015583</v>
       </c>
       <c r="M40" t="n">
         <v>120.6232601659383</v>
@@ -7363,19 +7363,19 @@
         <v>120.6232601659383</v>
       </c>
       <c r="U40" t="n">
-        <v>78.53404842146706</v>
+        <v>78.53404842146705</v>
       </c>
       <c r="V40" t="n">
-        <v>70.96092651556351</v>
+        <v>70.9609265155635</v>
       </c>
       <c r="W40" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X40" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>827.5379026594851</v>
+        <v>827.5379026594846</v>
       </c>
       <c r="C41" t="n">
-        <v>705.6867520190566</v>
+        <v>705.6867520190561</v>
       </c>
       <c r="D41" t="n">
-        <v>594.5324197122895</v>
+        <v>594.5324197122891</v>
       </c>
       <c r="E41" t="n">
-        <v>455.8555334140287</v>
+        <v>455.8555334140283</v>
       </c>
       <c r="F41" t="n">
-        <v>291.9809949244047</v>
+        <v>291.9809949244043</v>
       </c>
       <c r="G41" t="n">
         <v>120.0263557085881</v>
       </c>
       <c r="H41" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I41" t="n">
-        <v>78.79010407355125</v>
+        <v>78.79010407355122</v>
       </c>
       <c r="J41" t="n">
-        <v>345.0657804443182</v>
+        <v>177.6601314239651</v>
       </c>
       <c r="K41" t="n">
-        <v>423.1928913516649</v>
+        <v>255.7872423313118</v>
       </c>
       <c r="L41" t="n">
-        <v>498.7492055650844</v>
+        <v>331.3435565447313</v>
       </c>
       <c r="M41" t="n">
-        <v>853.3563499500889</v>
+        <v>419.7904777980465</v>
       </c>
       <c r="N41" t="n">
-        <v>943.9292935358606</v>
+        <v>510.3634213838181</v>
       </c>
       <c r="O41" t="n">
-        <v>1029.616559830336</v>
+        <v>864.9705657688226</v>
       </c>
       <c r="P41" t="n">
-        <v>1103.734660702708</v>
+        <v>1200.330570226149</v>
       </c>
       <c r="Q41" t="n">
         <v>1244.267076727719</v>
@@ -7436,7 +7436,7 @@
         <v>1364.669194558243</v>
       </c>
       <c r="S41" t="n">
-        <v>1409.574980255828</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T41" t="n">
         <v>1432.756138929311</v>
@@ -7448,13 +7448,13 @@
         <v>1342.066023030679</v>
       </c>
       <c r="W41" t="n">
-        <v>1236.408734060549</v>
+        <v>1236.408734060548</v>
       </c>
       <c r="X41" t="n">
         <v>1110.054342099452</v>
       </c>
       <c r="Y41" t="n">
-        <v>967.0263764236237</v>
+        <v>967.0263764236232</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="P42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="R42" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="S42" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="T42" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="U42" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="V42" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="W42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.65512277858623</v>
+        <v>92.81531250908186</v>
       </c>
       <c r="C43" t="n">
-        <v>28.65512277858623</v>
+        <v>92.81531250908186</v>
       </c>
       <c r="D43" t="n">
-        <v>28.65512277858623</v>
+        <v>92.81531250908186</v>
       </c>
       <c r="E43" t="n">
-        <v>28.65512277858623</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="F43" t="n">
-        <v>28.65512277858623</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="G43" t="n">
-        <v>28.65512277858623</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="H43" t="n">
-        <v>28.65512277858623</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="I43" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="J43" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="K43" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="L43" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="M43" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="N43" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="O43" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="P43" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="R43" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="S43" t="n">
-        <v>103.2845960674341</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="T43" t="n">
         <v>120.6232601659386</v>
       </c>
       <c r="U43" t="n">
-        <v>78.53404842146723</v>
+        <v>78.53404842146722</v>
       </c>
       <c r="V43" t="n">
-        <v>70.9609265155636</v>
+        <v>70.96092651556359</v>
       </c>
       <c r="W43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="44">
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>827.5379026594857</v>
+        <v>827.5379026594852</v>
       </c>
       <c r="C44" t="n">
-        <v>705.6867520190572</v>
+        <v>705.6867520190567</v>
       </c>
       <c r="D44" t="n">
-        <v>594.53241971229</v>
+        <v>594.5324197122895</v>
       </c>
       <c r="E44" t="n">
-        <v>455.8555334140291</v>
+        <v>455.8555334140286</v>
       </c>
       <c r="F44" t="n">
-        <v>291.9809949244047</v>
+        <v>291.9809949244043</v>
       </c>
       <c r="G44" t="n">
         <v>120.0263557085881</v>
       </c>
       <c r="H44" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I44" t="n">
-        <v>78.79010407355125</v>
+        <v>78.79010407355122</v>
       </c>
       <c r="J44" t="n">
         <v>177.6601314239651</v>
       </c>
       <c r="K44" t="n">
-        <v>532.2672758089697</v>
+        <v>325.7735119013608</v>
       </c>
       <c r="L44" t="n">
-        <v>607.8235900223891</v>
+        <v>680.3806562863653</v>
       </c>
       <c r="M44" t="n">
-        <v>696.2705112757043</v>
+        <v>768.8275775396804</v>
       </c>
       <c r="N44" t="n">
-        <v>1050.877655660709</v>
+        <v>859.4005211254521</v>
       </c>
       <c r="O44" t="n">
-        <v>1136.564921955184</v>
+        <v>945.0877874199275</v>
       </c>
       <c r="P44" t="n">
-        <v>1210.683022827557</v>
+        <v>966.2720204520631</v>
       </c>
       <c r="Q44" t="n">
-        <v>1278.486238349907</v>
+        <v>1244.267076727719</v>
       </c>
       <c r="R44" t="n">
         <v>1364.669194558243</v>
       </c>
       <c r="S44" t="n">
-        <v>1409.574980255828</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T44" t="n">
         <v>1432.756138929311</v>
@@ -7682,16 +7682,16 @@
         <v>1426.017544074267</v>
       </c>
       <c r="V44" t="n">
-        <v>1342.06602303068</v>
+        <v>1342.066023030679</v>
       </c>
       <c r="W44" t="n">
         <v>1236.408734060549</v>
       </c>
       <c r="X44" t="n">
-        <v>1110.054342099453</v>
+        <v>1110.054342099452</v>
       </c>
       <c r="Y44" t="n">
-        <v>967.0263764236242</v>
+        <v>967.0263764236238</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D45" t="n">
-        <v>35.78111320680461</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="F45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="G45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="H45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="I45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="J45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="K45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="L45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="M45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="N45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="O45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="P45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="R45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="S45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="T45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="U45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="V45" t="n">
-        <v>35.78111320680461</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="W45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73.19145734609273</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C46" t="n">
-        <v>73.19145734609273</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D46" t="n">
-        <v>73.19145734609273</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E46" t="n">
-        <v>73.19145734609273</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F46" t="n">
-        <v>73.19145734609273</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G46" t="n">
-        <v>73.19145734609273</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H46" t="n">
-        <v>73.19145734609273</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I46" t="n">
-        <v>73.19145734609273</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J46" t="n">
-        <v>73.19145734609273</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K46" t="n">
-        <v>73.19145734609273</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="L46" t="n">
-        <v>73.19145734609273</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="M46" t="n">
-        <v>73.19145734609273</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="N46" t="n">
-        <v>73.19145734609273</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="O46" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="P46" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="R46" t="n">
-        <v>79.55954737626909</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="S46" t="n">
-        <v>103.2845960674341</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="T46" t="n">
         <v>120.6232601659386</v>
       </c>
       <c r="U46" t="n">
-        <v>78.53404842146723</v>
+        <v>78.53404842146722</v>
       </c>
       <c r="V46" t="n">
-        <v>70.9609265155636</v>
+        <v>70.96092651556359</v>
       </c>
       <c r="W46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X46" t="n">
-        <v>47.39641405405301</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.19145734609273</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>164.5840594719442</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K11" t="n">
-        <v>165.7239789931988</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>153.1524308331736</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>185.5365003235248</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8936,19 +8936,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O14" t="n">
-        <v>10.22047241992095</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>83.22634778599082</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.152156149761</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>46.77763855076758</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9003,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>84.19302733439822</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>88.18866638734512</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9082,13 +9082,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>63.24665171738019</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>362.5200862270198</v>
       </c>
       <c r="O26" t="n">
-        <v>8.913121381548322</v>
+        <v>367.4551137939856</v>
       </c>
       <c r="P26" t="n">
-        <v>169.7734840790314</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>105.2328625520064</v>
@@ -9957,10 +9957,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>84.19302733439822</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>69.02949835056253</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,25 +10033,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O28" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>377.6883987243451</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>185.1758125927431</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.8725167441803</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,22 +10185,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>84.19302733439822</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>71.86717946018487</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,25 +10267,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>389.866373032928</v>
       </c>
       <c r="M32" t="n">
-        <v>118.120305046466</v>
+        <v>364.6675835325313</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>98.62447194979133</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>88.18866638734512</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.4878631656135</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10510,19 +10510,19 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>281.8695254258434</v>
       </c>
       <c r="M35" t="n">
-        <v>335.3246441329753</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>242.5604540636488</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>231.2766021456621</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>176.152156149761</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L36" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>84.19302733439822</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>71.86717946018487</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>88.18866638734512</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>91.93668389306561</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>196.5663747406001</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>266.7012129285179</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,19 +11066,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>432.6495134270829</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>271.6362404954838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>263.8807106918731</v>
       </c>
       <c r="Q41" t="n">
-        <v>73.4638388915765</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,13 +11139,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>70.6932015859081</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>281.8695254258434</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>299.485317042689</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>31.15161015360113</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11379,19 +11379,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L45" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q45" t="n">
         <v>110.7916225242058</v>
@@ -11458,16 +11458,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O46" t="n">
-        <v>117.7911403083729</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.21084332688957</v>
+        <v>168.6144048339938</v>
       </c>
       <c r="C11" t="n">
-        <v>151.1534549415209</v>
+        <v>151.1534549415208</v>
       </c>
       <c r="D11" t="n">
-        <v>68.16004328409196</v>
+        <v>140.5636047911962</v>
       </c>
       <c r="E11" t="n">
-        <v>95.40737173567078</v>
+        <v>167.810933242775</v>
       </c>
       <c r="F11" t="n">
-        <v>192.7566089122248</v>
+        <v>120.3530474051204</v>
       </c>
       <c r="G11" t="n">
-        <v>200.7559086311549</v>
+        <v>128.3523471240505</v>
       </c>
       <c r="H11" t="n">
-        <v>120.9783364081986</v>
+        <v>120.9783364081985</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.105504016099173</v>
       </c>
       <c r="U11" t="n">
-        <v>37.19202471399036</v>
+        <v>37.19202471399027</v>
       </c>
       <c r="V11" t="n">
-        <v>56.96526868129004</v>
+        <v>49.85976466519077</v>
       </c>
       <c r="W11" t="n">
-        <v>135.1215318879264</v>
+        <v>135.1215318879263</v>
       </c>
       <c r="X11" t="n">
-        <v>155.6116638489824</v>
+        <v>83.20810234187803</v>
       </c>
       <c r="Y11" t="n">
-        <v>172.1185018265669</v>
+        <v>172.1185018265668</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.6144048339939</v>
+        <v>168.6144048339938</v>
       </c>
       <c r="C14" t="n">
-        <v>151.1534549415209</v>
+        <v>78.74989343441655</v>
       </c>
       <c r="D14" t="n">
-        <v>140.5636047911963</v>
+        <v>140.5636047911962</v>
       </c>
       <c r="E14" t="n">
-        <v>167.8109332427751</v>
+        <v>95.40737173567078</v>
       </c>
       <c r="F14" t="n">
-        <v>120.3530474051204</v>
+        <v>192.7566089122247</v>
       </c>
       <c r="G14" t="n">
-        <v>128.3523471240505</v>
+        <v>136.9828516556973</v>
       </c>
       <c r="H14" t="n">
-        <v>48.57477490109426</v>
+        <v>120.9783364081985</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.105504016099161</v>
       </c>
       <c r="U14" t="n">
-        <v>37.19202471399035</v>
+        <v>37.19202471399026</v>
       </c>
       <c r="V14" t="n">
         <v>113.6328216406482</v>
       </c>
       <c r="W14" t="n">
-        <v>135.1215318879264</v>
+        <v>135.1215318879263</v>
       </c>
       <c r="X14" t="n">
-        <v>155.6116638489824</v>
+        <v>155.6116638489823</v>
       </c>
       <c r="Y14" t="n">
-        <v>115.4509488672088</v>
+        <v>99.71494031946258</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.897504706808832e-13</v>
+        <v>4.050093593832571e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1235889.972105729</v>
+        <v>1235889.97210573</v>
       </c>
     </row>
     <row r="14">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>245782.9016151114</v>
+      </c>
+      <c r="C2" t="n">
         <v>245782.9016151115</v>
       </c>
-      <c r="C2" t="n">
-        <v>245782.9016151114</v>
-      </c>
       <c r="D2" t="n">
-        <v>245782.9016151116</v>
+        <v>245782.9016151115</v>
       </c>
       <c r="E2" t="n">
-        <v>210912.0653495049</v>
+        <v>210912.0653495047</v>
       </c>
       <c r="F2" t="n">
-        <v>210912.0653495047</v>
+        <v>210912.0653495048</v>
       </c>
       <c r="G2" t="n">
         <v>246312.530959285</v>
@@ -26335,13 +26335,13 @@
         <v>246312.530959285</v>
       </c>
       <c r="J2" t="n">
+        <v>246312.5309592849</v>
+      </c>
+      <c r="K2" t="n">
         <v>246312.530959285</v>
       </c>
-      <c r="K2" t="n">
-        <v>246312.5309592851</v>
-      </c>
       <c r="L2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592852</v>
@@ -26350,7 +26350,7 @@
         <v>246312.5309592852</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592853</v>
+        <v>246312.5309592852</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592852</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163718.1536871231</v>
+        <v>163718.1536871232</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>106979.8107928507</v>
       </c>
       <c r="M3" t="n">
-        <v>18732.24943311805</v>
+        <v>18732.249433118</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>70000.14188361795</v>
+        <v>70000.14188361799</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,19 +26433,19 @@
         <v>431842.1671902813</v>
       </c>
       <c r="H4" t="n">
-        <v>431842.1671902813</v>
+        <v>431842.1671902814</v>
       </c>
       <c r="I4" t="n">
         <v>431842.1671902813</v>
       </c>
       <c r="J4" t="n">
+        <v>440899.9009590468</v>
+      </c>
+      <c r="K4" t="n">
+        <v>440899.9009590468</v>
+      </c>
+      <c r="L4" t="n">
         <v>440899.9009590467</v>
-      </c>
-      <c r="K4" t="n">
-        <v>440899.9009590467</v>
-      </c>
-      <c r="L4" t="n">
-        <v>440899.9009590468</v>
       </c>
       <c r="M4" t="n">
         <v>436970.659685421</v>
@@ -26457,7 +26457,7 @@
         <v>436970.6596854209</v>
       </c>
       <c r="P4" t="n">
-        <v>436970.659685421</v>
+        <v>436970.6596854209</v>
       </c>
     </row>
     <row r="5">
@@ -26488,7 +26488,7 @@
         <v>35962.69087988507</v>
       </c>
       <c r="I5" t="n">
-        <v>35962.69087988508</v>
+        <v>35962.69087988507</v>
       </c>
       <c r="J5" t="n">
         <v>47095.82966680983</v>
@@ -26503,7 +26503,7 @@
         <v>44662.19497416889</v>
       </c>
       <c r="N5" t="n">
-        <v>44662.1949741689</v>
+        <v>44662.19497416889</v>
       </c>
       <c r="O5" t="n">
         <v>44662.19497416889</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-255460.6583166197</v>
+        <v>-255465.0718944879</v>
       </c>
       <c r="C6" t="n">
-        <v>-255460.6583166198</v>
+        <v>-255465.0718944879</v>
       </c>
       <c r="D6" t="n">
-        <v>-255460.6583166197</v>
+        <v>-255465.0718944878</v>
       </c>
       <c r="E6" t="n">
-        <v>-458819.3933917971</v>
+        <v>-459114.3972718787</v>
       </c>
       <c r="F6" t="n">
-        <v>-180492.9287249182</v>
+        <v>-180787.9326049996</v>
       </c>
       <c r="G6" t="n">
-        <v>-328472.1379037321</v>
+        <v>-328472.137903732</v>
       </c>
       <c r="H6" t="n">
-        <v>-221492.3271108814</v>
+        <v>-221492.3271108815</v>
       </c>
       <c r="I6" t="n">
         <v>-221492.3271108814</v>
       </c>
       <c r="J6" t="n">
-        <v>-405401.3533536946</v>
+        <v>-405401.3533536949</v>
       </c>
       <c r="K6" t="n">
-        <v>-241683.1996665715</v>
+        <v>-241683.1996665717</v>
       </c>
       <c r="L6" t="n">
         <v>-348663.0104594223</v>
@@ -26558,10 +26558,10 @@
         <v>-235320.3237003048</v>
       </c>
       <c r="O6" t="n">
-        <v>-305320.4655839225</v>
+        <v>-305320.4655839226</v>
       </c>
       <c r="P6" t="n">
-        <v>-235320.3237003047</v>
+        <v>-235320.3237003046</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>214.1194368294867</v>
       </c>
       <c r="G2" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="H2" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="I2" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="J2" t="n">
         <v>221.2249408455859</v>
@@ -26716,7 +26716,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="M2" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N2" t="n">
         <v>244.6402526369835</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="F4" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="G4" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="H4" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="I4" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="J4" t="n">
         <v>430.5925962394319</v>
@@ -26820,16 +26820,16 @@
         <v>430.5925962394319</v>
       </c>
       <c r="M4" t="n">
-        <v>358.1890347323276</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="N4" t="n">
-        <v>358.1890347323278</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="O4" t="n">
-        <v>358.1890347323278</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="P4" t="n">
-        <v>358.1890347323278</v>
+        <v>358.1890347323277</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.50017735452252</v>
+        <v>87.50017735452258</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>133.7247634910634</v>
       </c>
       <c r="M2" t="n">
-        <v>23.41531179139756</v>
+        <v>23.4153117913975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452244</v>
+        <v>87.50017735452249</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>358.1890347323275</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452252</v>
+        <v>87.50017735452258</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28108,13 +28108,13 @@
         <v>214.1194368294867</v>
       </c>
       <c r="I11" t="n">
-        <v>214.1194368294867</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L11" t="n">
         <v>214.1194368294867</v>
@@ -28132,13 +28132,13 @@
         <v>214.1194368294867</v>
       </c>
       <c r="Q11" t="n">
+        <v>32.08874321708544</v>
+      </c>
+      <c r="R11" t="n">
         <v>214.1194368294867</v>
       </c>
-      <c r="R11" t="n">
-        <v>192.5307064553527</v>
-      </c>
       <c r="S11" t="n">
-        <v>199.280873144474</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="T11" t="n">
         <v>214.1194368294867</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>214.1194368294867</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -28196,19 +28196,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L12" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M12" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N12" t="n">
-        <v>71.86717946018487</v>
+        <v>141.3127436892853</v>
       </c>
       <c r="O12" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P12" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q12" t="n">
         <v>110.7916225242058</v>
@@ -28217,7 +28217,7 @@
         <v>131.4816003936965</v>
       </c>
       <c r="S12" t="n">
-        <v>189.2949460117479</v>
+        <v>167.4356349622666</v>
       </c>
       <c r="T12" t="n">
         <v>199.2430083373</v>
@@ -28248,7 +28248,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>172.6965511939641</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -28263,37 +28263,37 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H13" t="n">
-        <v>214.1194368294867</v>
+        <v>160.5226664330617</v>
       </c>
       <c r="I13" t="n">
         <v>149.6851312728186</v>
       </c>
       <c r="J13" t="n">
-        <v>164.6551940945656</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K13" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L13" t="n">
-        <v>106.3821278759461</v>
+        <v>178.7856893830503</v>
       </c>
       <c r="M13" t="n">
         <v>108.8738430064009</v>
       </c>
       <c r="N13" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O13" t="n">
-        <v>111.3587261364775</v>
+        <v>183.7622876435818</v>
       </c>
       <c r="P13" t="n">
-        <v>114.5411443216187</v>
+        <v>186.944705828723</v>
       </c>
       <c r="Q13" t="n">
-        <v>207.855183329705</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R13" t="n">
-        <v>214.1194368294867</v>
+        <v>168.6732614754589</v>
       </c>
       <c r="S13" t="n">
         <v>214.1194368294867</v>
@@ -28348,34 +28348,34 @@
         <v>193.998857389544</v>
       </c>
       <c r="J14" t="n">
-        <v>144.7715381416158</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="K14" t="n">
         <v>214.1194368294867</v>
       </c>
       <c r="L14" t="n">
-        <v>214.1194368294867</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M14" t="n">
         <v>214.1194368294867</v>
       </c>
       <c r="N14" t="n">
-        <v>205.736605876704</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>86.54713629304064</v>
+      </c>
+      <c r="Q14" t="n">
         <v>214.1194368294867</v>
       </c>
-      <c r="P14" t="n">
-        <v>169.7734840790314</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
-        <v>188.7383716710528</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="S14" t="n">
-        <v>214.1194368294867</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T14" t="n">
         <v>214.1194368294867</v>
@@ -28406,10 +28406,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>175.4796919525685</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>214.1194368294867</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -28427,25 +28427,25 @@
         <v>91.64914299614301</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N15" t="n">
-        <v>71.86717946018487</v>
+        <v>141.3127436892853</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q15" t="n">
         <v>110.7916225242058</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>214.1194368294867</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -28506,28 +28506,28 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J16" t="n">
-        <v>113.4412867354731</v>
+        <v>79.80504541274973</v>
       </c>
       <c r="K16" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L16" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>152.4396779612925</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N16" t="n">
-        <v>98.34817151022011</v>
+        <v>170.7517330173244</v>
       </c>
       <c r="O16" t="n">
-        <v>183.7622876435819</v>
+        <v>183.7622876435818</v>
       </c>
       <c r="P16" t="n">
-        <v>186.9447058287231</v>
+        <v>186.944705828723</v>
       </c>
       <c r="Q16" t="n">
-        <v>135.4516218226007</v>
+        <v>140.9013519179369</v>
       </c>
       <c r="R16" t="n">
         <v>168.6732614754589</v>
@@ -28561,55 +28561,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="C17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="D17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="E17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="F17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="G17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="H17" t="n">
         <v>335.0977732376853</v>
       </c>
       <c r="I17" t="n">
-        <v>266.4024188966483</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J17" t="n">
         <v>144.7715381416158</v>
       </c>
       <c r="K17" t="n">
-        <v>165.7239789931988</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L17" t="n">
         <v>168.3207433304991</v>
       </c>
       <c r="M17" t="n">
-        <v>155.2999281386852</v>
+        <v>227.7034896457895</v>
       </c>
       <c r="N17" t="n">
-        <v>153.1524308331736</v>
+        <v>202.5386540653333</v>
       </c>
       <c r="O17" t="n">
-        <v>207.4736816322993</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P17" t="n">
         <v>169.7734840790314</v>
       </c>
       <c r="Q17" t="n">
-        <v>248.5557176568654</v>
+        <v>248.5557176568653</v>
       </c>
       <c r="R17" t="n">
-        <v>261.1419331781571</v>
+        <v>188.7383716710528</v>
       </c>
       <c r="S17" t="n">
         <v>199.280873144474</v>
@@ -28618,19 +28618,19 @@
         <v>221.2249408455859</v>
       </c>
       <c r="U17" t="n">
-        <v>251.311461543477</v>
+        <v>323.7150230505813</v>
       </c>
       <c r="V17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="W17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="X17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="Y17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
     </row>
     <row r="18">
@@ -28670,19 +28670,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L18" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M18" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N18" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O18" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P18" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q18" t="n">
         <v>110.7916225242058</v>
@@ -28755,10 +28755,10 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N19" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O19" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P19" t="n">
         <v>114.5411443216187</v>
@@ -28798,43 +28798,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="C20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="D20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="E20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="F20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="G20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="H20" t="n">
         <v>335.0977732376853</v>
       </c>
       <c r="I20" t="n">
-        <v>193.998857389544</v>
+        <v>266.4024188966483</v>
       </c>
       <c r="J20" t="n">
         <v>144.7715381416158</v>
       </c>
       <c r="K20" t="n">
-        <v>165.7239789931988</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L20" t="n">
         <v>168.3207433304991</v>
       </c>
       <c r="M20" t="n">
-        <v>155.2999281386852</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N20" t="n">
-        <v>153.1524308331736</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O20" t="n">
         <v>158.0874584001396</v>
@@ -28846,28 +28846,28 @@
         <v>176.152156149761</v>
       </c>
       <c r="R20" t="n">
-        <v>261.1419331781571</v>
+        <v>261.141933178157</v>
       </c>
       <c r="S20" t="n">
-        <v>271.6844346515783</v>
+        <v>271.6844346515782</v>
       </c>
       <c r="T20" t="n">
-        <v>270.6111640777456</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U20" t="n">
-        <v>323.7150230505814</v>
+        <v>300.6976847756366</v>
       </c>
       <c r="V20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="W20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="X20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="Y20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
     </row>
     <row r="21">
@@ -28907,19 +28907,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L21" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M21" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N21" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O21" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P21" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q21" t="n">
         <v>110.7916225242058</v>
@@ -28992,10 +28992,10 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N22" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O22" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P22" t="n">
         <v>114.5411443216187</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="C23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="D23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="E23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="F23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="G23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="H23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="I23" t="n">
         <v>193.998857389544</v>
@@ -29062,16 +29062,16 @@
         <v>144.7715381416158</v>
       </c>
       <c r="K23" t="n">
-        <v>165.7239789931988</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L23" t="n">
         <v>168.3207433304991</v>
       </c>
       <c r="M23" t="n">
-        <v>155.2999281386852</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N23" t="n">
-        <v>153.1524308331736</v>
+        <v>225.555992340278</v>
       </c>
       <c r="O23" t="n">
         <v>158.0874584001396</v>
@@ -29080,31 +29080,31 @@
         <v>169.7734840790314</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.152156149761</v>
+        <v>232.883894149471</v>
       </c>
       <c r="R23" t="n">
-        <v>261.1419331781572</v>
+        <v>188.7383716710528</v>
       </c>
       <c r="S23" t="n">
-        <v>271.6844346515784</v>
+        <v>271.6844346515783</v>
       </c>
       <c r="T23" t="n">
-        <v>257.864736994881</v>
+        <v>293.6285023526902</v>
       </c>
       <c r="U23" t="n">
-        <v>323.7150230505815</v>
+        <v>251.311461543477</v>
       </c>
       <c r="V23" t="n">
-        <v>347.84420032055</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="X23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="Y23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
     </row>
     <row r="24">
@@ -29144,19 +29144,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L24" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M24" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N24" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O24" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P24" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q24" t="n">
         <v>110.7916225242058</v>
@@ -29229,10 +29229,10 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N25" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O25" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P25" t="n">
         <v>114.5411443216187</v>
@@ -29293,7 +29293,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="I26" t="n">
-        <v>221.2249408455859</v>
+        <v>220.7634274865002</v>
       </c>
       <c r="J26" t="n">
         <v>221.2249408455859</v>
@@ -29302,19 +29302,19 @@
         <v>221.2249408455859</v>
       </c>
       <c r="L26" t="n">
-        <v>181.2521250194806</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>92.05327642130506</v>
+      </c>
+      <c r="N26" t="n">
         <v>221.2249408455859</v>
-      </c>
-      <c r="N26" t="n">
-        <v>146.3981026606214</v>
       </c>
       <c r="O26" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Q26" t="n">
         <v>221.2249408455859</v>
@@ -29372,7 +29372,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I27" t="n">
-        <v>139.3453836375508</v>
+        <v>81.52339584755809</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29381,22 +29381,22 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N27" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O27" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P27" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.76212417364324</v>
+        <v>158.4878631656135</v>
       </c>
       <c r="R27" t="n">
         <v>85.95993058237569</v>
@@ -29433,7 +29433,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -29445,7 +29445,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7992659963099</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="H28" t="n">
         <v>160.5226664330617</v>
@@ -29457,31 +29457,31 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>108.8738430064009</v>
       </c>
       <c r="N28" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>138.591294431155</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>221.2249408455859</v>
+        <v>202.6648708803955</v>
       </c>
       <c r="R28" t="n">
         <v>168.6732614754589</v>
       </c>
       <c r="S28" t="n">
-        <v>220.675556989342</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="T28" t="n">
         <v>221.2249408455859</v>
@@ -29539,22 +29539,22 @@
         <v>221.2249408455859</v>
       </c>
       <c r="L29" t="n">
-        <v>181.2521250194806</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="M29" t="n">
-        <v>93.14995898406502</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="N29" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="P29" t="n">
-        <v>221.2249408455859</v>
+        <v>65.10062908318977</v>
       </c>
       <c r="Q29" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>221.2249408455859</v>
@@ -29600,43 +29600,43 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>192.7654530347917</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.114842254054</v>
       </c>
       <c r="H30" t="n">
-        <v>110.026926034905</v>
+        <v>157.7231666763128</v>
       </c>
       <c r="I30" t="n">
-        <v>81.52339584755809</v>
+        <v>91.64914299614301</v>
       </c>
       <c r="J30" t="n">
         <v>105.2328625520064</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L30" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O30" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P30" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R30" t="n">
-        <v>85.95993058237569</v>
+        <v>131.4816003936965</v>
       </c>
       <c r="S30" t="n">
         <v>167.4356349622666</v>
@@ -29691,28 +29691,28 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J31" t="n">
+        <v>174.1224245864939</v>
+      </c>
+      <c r="K31" t="n">
         <v>221.2249408455859</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.1981539000375</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R31" t="n">
         <v>168.6732614754589</v>
@@ -29776,16 +29776,16 @@
         <v>221.2249408455859</v>
       </c>
       <c r="L32" t="n">
-        <v>168.3207433304991</v>
+        <v>209.046966537003</v>
       </c>
       <c r="M32" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="N32" t="n">
-        <v>146.3981026606214</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>169.9716130512961</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>221.2249408455859</v>
@@ -29846,40 +29846,40 @@
         <v>110.026926034905</v>
       </c>
       <c r="I33" t="n">
-        <v>91.64914299614301</v>
+        <v>81.52339584755809</v>
       </c>
       <c r="J33" t="n">
-        <v>105.2328625520064</v>
+        <v>130.9471706851283</v>
       </c>
       <c r="K33" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L33" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N33" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>85.95993058237569</v>
+        <v>131.4816003936965</v>
       </c>
       <c r="S33" t="n">
         <v>167.4356349622666</v>
       </c>
       <c r="T33" t="n">
-        <v>199.2430083373</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U33" t="n">
         <v>221.2249408455859</v>
@@ -29910,7 +29910,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -29934,25 +29934,25 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M34" t="n">
-        <v>105.5306096072281</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.4516218226007</v>
+        <v>185.4569021353731</v>
       </c>
       <c r="R34" t="n">
-        <v>168.6732614754589</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S34" t="n">
         <v>220.675556989342</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="C35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="D35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="E35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="F35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="G35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="H35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="I35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="J35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="K35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="L35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="M35" t="n">
-        <v>178.1643187380375</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N35" t="n">
-        <v>244.6402526369835</v>
+        <v>208.0111905512886</v>
       </c>
       <c r="O35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="P35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Q35" t="n">
-        <v>244.6402526369835</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="S35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="T35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="U35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Y35" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
     </row>
     <row r="36">
@@ -30083,31 +30083,31 @@
         <v>110.026926034905</v>
       </c>
       <c r="I36" t="n">
-        <v>91.64914299614301</v>
+        <v>98.84711312565653</v>
       </c>
       <c r="J36" t="n">
         <v>105.2328625520064</v>
       </c>
       <c r="K36" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P36" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R36" t="n">
         <v>131.4816003936965</v>
@@ -30122,10 +30122,10 @@
         <v>225.9263376790566</v>
       </c>
       <c r="V36" t="n">
-        <v>239.9985572789387</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30168,19 +30168,19 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K37" t="n">
-        <v>199.6367596584066</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M37" t="n">
         <v>108.8738430064009</v>
       </c>
       <c r="N37" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O37" t="n">
-        <v>111.3587261364775</v>
+        <v>204.2558346085506</v>
       </c>
       <c r="P37" t="n">
         <v>114.5411443216187</v>
@@ -30198,13 +30198,13 @@
         <v>227.1264505172819</v>
       </c>
       <c r="U37" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V37" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W37" t="n">
-        <v>244.6402526369835</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -30253,7 +30253,7 @@
         <v>244.6402526369835</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>22.76475517819826</v>
       </c>
       <c r="N38" t="n">
         <v>244.6402526369835</v>
@@ -30262,10 +30262,10 @@
         <v>244.6402526369835</v>
       </c>
       <c r="P38" t="n">
+        <v>169.7734840790314</v>
+      </c>
+      <c r="Q38" t="n">
         <v>244.6402526369835</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>208.0111905512911</v>
       </c>
       <c r="R38" t="n">
         <v>244.6402526369835</v>
@@ -30326,22 +30326,22 @@
         <v>105.2328625520064</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L39" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M39" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N39" t="n">
-        <v>71.86717946018487</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P39" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q39" t="n">
         <v>110.7916225242058</v>
@@ -30356,7 +30356,7 @@
         <v>199.2430083373</v>
       </c>
       <c r="U39" t="n">
-        <v>233.1243078085701</v>
+        <v>225.9263376790566</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -30368,7 +30368,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>212.8806659068178</v>
       </c>
     </row>
     <row r="40">
@@ -30381,7 +30381,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30396,10 +30396,10 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H40" t="n">
-        <v>244.6402526369835</v>
+        <v>160.5226664330617</v>
       </c>
       <c r="I40" t="n">
-        <v>158.4646535409696</v>
+        <v>149.6851312728186</v>
       </c>
       <c r="J40" t="n">
         <v>113.4412867354731</v>
@@ -30411,13 +30411,13 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M40" t="n">
-        <v>108.8738430064009</v>
+        <v>124.377519940118</v>
       </c>
       <c r="N40" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O40" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P40" t="n">
         <v>114.5411443216187</v>
@@ -30490,7 +30490,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="M41" t="n">
-        <v>80.83944944393019</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N41" t="n">
         <v>244.6402526369834</v>
@@ -30502,7 +30502,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.6402526369834</v>
+        <v>8.217475087401223</v>
       </c>
       <c r="R41" t="n">
         <v>244.6402526369834</v>
@@ -30545,7 +30545,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>164.8430505849145</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -30563,31 +30563,31 @@
         <v>105.2328625520064</v>
       </c>
       <c r="K42" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>71.86717946018487</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O42" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P42" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R42" t="n">
         <v>131.4816003936965</v>
       </c>
       <c r="S42" t="n">
-        <v>167.4356349622666</v>
+        <v>174.6336050917801</v>
       </c>
       <c r="T42" t="n">
         <v>199.2430083373</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30624,7 +30624,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>174.5227986635961</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -30636,7 +30636,7 @@
         <v>160.5226664330617</v>
       </c>
       <c r="I43" t="n">
-        <v>201.1037419775488</v>
+        <v>149.6851312728186</v>
       </c>
       <c r="J43" t="n">
         <v>113.4412867354731</v>
@@ -30648,16 +30648,16 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N43" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O43" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q43" t="n">
         <v>135.4516218226007</v>
@@ -30666,10 +30666,10 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S43" t="n">
-        <v>244.6402526369834</v>
+        <v>220.675556989342</v>
       </c>
       <c r="T43" t="n">
-        <v>244.6402526369834</v>
+        <v>227.1264505172819</v>
       </c>
       <c r="U43" t="n">
         <v>244.6402526369834</v>
@@ -30721,7 +30721,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="K44" t="n">
-        <v>199.7676011543619</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="L44" t="n">
         <v>244.6402526369834</v>
@@ -30730,13 +30730,13 @@
         <v>244.6402526369834</v>
       </c>
       <c r="N44" t="n">
-        <v>211.8561485228124</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="O44" t="n">
         <v>244.6402526369834</v>
       </c>
       <c r="P44" t="n">
-        <v>244.6402526369834</v>
+        <v>191.1716992630068</v>
       </c>
       <c r="Q44" t="n">
         <v>244.6402526369834</v>
@@ -30779,10 +30779,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>154.6430356941523</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>164.8430505849145</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -30794,7 +30794,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I45" t="n">
-        <v>91.64914299614301</v>
+        <v>81.52339584755809</v>
       </c>
       <c r="J45" t="n">
         <v>105.2328625520064</v>
@@ -30806,16 +30806,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>84.19302733439822</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N45" t="n">
-        <v>71.86717946018487</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>88.18866638734512</v>
+        <v>88.18866638734514</v>
       </c>
       <c r="P45" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -30879,10 +30879,10 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7396511863337</v>
+        <v>199.6367596584068</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M46" t="n">
         <v>108.8738430064009</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P46" t="n">
         <v>114.5411443216187</v>
@@ -30903,10 +30903,10 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S46" t="n">
-        <v>244.6402526369834</v>
+        <v>220.675556989342</v>
       </c>
       <c r="T46" t="n">
-        <v>244.6402526369834</v>
+        <v>227.1264505172819</v>
       </c>
       <c r="U46" t="n">
         <v>244.6402526369834</v>
@@ -30918,10 +30918,10 @@
         <v>244.6402526369834</v>
       </c>
       <c r="X46" t="n">
-        <v>244.6402526369834</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>244.6402526369834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H11" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I11" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J11" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K11" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L11" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M11" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N11" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O11" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P11" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R11" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S11" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T11" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H12" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I12" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J12" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K12" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L12" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M12" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N12" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O12" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P12" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R12" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S12" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,28 +31911,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H13" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I13" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J13" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K13" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L13" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M13" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N13" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O13" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P13" t="n">
         <v>23.18685972752887</v>
@@ -31941,13 +31941,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R13" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S13" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T13" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U13" t="n">
         <v>0.01045709248084587</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H14" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I14" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J14" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K14" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L14" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M14" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N14" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O14" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P14" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R14" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S14" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T14" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H15" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I15" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J15" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K15" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L15" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M15" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N15" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O15" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P15" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R15" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S15" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,28 +32148,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H16" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I16" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J16" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K16" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L16" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M16" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N16" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O16" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P16" t="n">
         <v>23.18685972752887</v>
@@ -32178,13 +32178,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R16" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S16" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T16" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U16" t="n">
         <v>0.01045709248084587</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H17" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I17" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J17" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K17" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L17" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M17" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N17" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O17" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P17" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R17" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S17" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T17" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H18" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I18" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J18" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K18" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L18" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M18" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N18" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O18" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P18" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R18" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S18" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,28 +32385,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H19" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I19" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J19" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K19" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L19" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M19" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N19" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O19" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P19" t="n">
         <v>23.18685972752887</v>
@@ -32415,13 +32415,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R19" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S19" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T19" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U19" t="n">
         <v>0.01045709248084587</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H20" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I20" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J20" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K20" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L20" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M20" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N20" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O20" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P20" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R20" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S20" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T20" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H21" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I21" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J21" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K21" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L21" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M21" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N21" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O21" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P21" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R21" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S21" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,28 +32622,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H22" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I22" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J22" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K22" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L22" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M22" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N22" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O22" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P22" t="n">
         <v>23.18685972752887</v>
@@ -32652,13 +32652,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R22" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S22" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T22" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U22" t="n">
         <v>0.01045709248084587</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H23" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I23" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J23" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K23" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L23" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M23" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N23" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O23" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P23" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R23" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S23" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T23" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H24" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I24" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J24" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K24" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L24" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M24" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N24" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O24" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P24" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R24" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S24" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,28 +32859,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H25" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I25" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J25" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K25" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L25" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M25" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N25" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O25" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P25" t="n">
         <v>23.18685972752887</v>
@@ -32889,13 +32889,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R25" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S25" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T25" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U25" t="n">
         <v>0.01045709248084587</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H26" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I26" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J26" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K26" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L26" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M26" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N26" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O26" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P26" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R26" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S26" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T26" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H27" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I27" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J27" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K27" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L27" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M27" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N27" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O27" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P27" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R27" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S27" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,28 +33096,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H28" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I28" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J28" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K28" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L28" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M28" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N28" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O28" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P28" t="n">
         <v>23.18685972752887</v>
@@ -33126,13 +33126,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R28" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S28" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T28" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U28" t="n">
         <v>0.01045709248084587</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H29" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I29" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J29" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K29" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L29" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M29" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N29" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O29" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P29" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R29" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S29" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T29" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H30" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I30" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J30" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K30" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L30" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M30" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N30" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O30" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P30" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R30" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S30" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,28 +33333,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H31" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I31" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J31" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K31" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L31" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M31" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N31" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O31" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P31" t="n">
         <v>23.18685972752887</v>
@@ -33363,13 +33363,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R31" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S31" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T31" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U31" t="n">
         <v>0.01045709248084587</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H32" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I32" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J32" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K32" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L32" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M32" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N32" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O32" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P32" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R32" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S32" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T32" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H33" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I33" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J33" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K33" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L33" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M33" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N33" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O33" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P33" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R33" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S33" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,28 +33570,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H34" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I34" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J34" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K34" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L34" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M34" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N34" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O34" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P34" t="n">
         <v>23.18685972752887</v>
@@ -33600,13 +33600,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R34" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S34" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T34" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U34" t="n">
         <v>0.01045709248084587</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H35" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I35" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J35" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K35" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L35" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M35" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N35" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O35" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P35" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R35" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S35" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T35" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H36" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I36" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J36" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K36" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L36" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M36" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N36" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O36" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P36" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R36" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S36" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,28 +33807,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H37" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I37" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J37" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K37" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L37" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M37" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N37" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O37" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P37" t="n">
         <v>23.18685972752887</v>
@@ -33837,13 +33837,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R37" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S37" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T37" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U37" t="n">
         <v>0.01045709248084587</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H38" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I38" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J38" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K38" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L38" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M38" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N38" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O38" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P38" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R38" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S38" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T38" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H39" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I39" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J39" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K39" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L39" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M39" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N39" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O39" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P39" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R39" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S39" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,28 +34044,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H40" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I40" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J40" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K40" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L40" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M40" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N40" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O40" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P40" t="n">
         <v>23.18685972752887</v>
@@ -34074,13 +34074,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R40" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S40" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T40" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U40" t="n">
         <v>0.01045709248084587</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H41" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I41" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J41" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K41" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L41" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M41" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N41" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O41" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P41" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R41" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S41" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T41" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H42" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I42" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J42" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K42" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L42" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M42" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N42" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O42" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P42" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R42" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S42" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,28 +34281,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H43" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I43" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J43" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K43" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L43" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M43" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N43" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O43" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P43" t="n">
         <v>23.18685972752887</v>
@@ -34311,13 +34311,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R43" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S43" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T43" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U43" t="n">
         <v>0.01045709248084587</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H44" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081887</v>
       </c>
       <c r="I44" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J44" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507046</v>
       </c>
       <c r="K44" t="n">
-        <v>54.3658720517817</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L44" t="n">
-        <v>67.44567163948815</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M44" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N44" t="n">
-        <v>76.26063276341726</v>
+        <v>76.26063276341723</v>
       </c>
       <c r="O44" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P44" t="n">
-        <v>61.45951167623811</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R44" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307936</v>
       </c>
       <c r="S44" t="n">
-        <v>9.739196441771377</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T44" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H45" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I45" t="n">
-        <v>7.873237003856982</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J45" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466028</v>
       </c>
       <c r="K45" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L45" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069296</v>
       </c>
       <c r="M45" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762007</v>
       </c>
       <c r="N45" t="n">
-        <v>59.47453262314843</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O45" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P45" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R45" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S45" t="n">
-        <v>4.247536141571247</v>
+        <v>4.247536141571246</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9217203575216003</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,28 +34518,28 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H46" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I46" t="n">
-        <v>5.765343654439685</v>
+        <v>5.765343654439683</v>
       </c>
       <c r="J46" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K46" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L46" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529219</v>
       </c>
       <c r="M46" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N46" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O46" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P46" t="n">
         <v>23.18685972752887</v>
@@ -34548,13 +34548,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R46" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S46" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T46" t="n">
-        <v>0.819138910999592</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U46" t="n">
         <v>0.01045709248084587</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.12057943994267</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>19.81252133032834</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>45.79869349898757</v>
+        <v>45.79869349898763</v>
       </c>
       <c r="M11" t="n">
-        <v>58.81950869080143</v>
+        <v>58.81950869080148</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>56.03197842934712</v>
+        <v>56.03197842934718</v>
       </c>
       <c r="P11" t="n">
-        <v>44.34595275045523</v>
+        <v>44.34595275045528</v>
       </c>
       <c r="Q11" t="n">
-        <v>37.96728067972564</v>
+        <v>41.47308739084926</v>
       </c>
       <c r="R11" t="n">
-        <v>3.792334784299904</v>
+        <v>25.38106515843398</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>14.83856368501278</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35462,7 +35462,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>47.58625317961932</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>69.44556422910037</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35513,7 +35513,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>21.8593110494813</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.449730095336234</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35559,19 +35559,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>53.59677039642496</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.21390735909256</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35580,16 +35580,16 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.40356150710434</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.44617535402777</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,34 +35644,34 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>69.34789868787092</v>
       </c>
       <c r="K14" t="n">
-        <v>48.39545783628781</v>
+        <v>48.39545783628787</v>
       </c>
       <c r="L14" t="n">
-        <v>45.79869349898757</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>58.81950869080143</v>
+        <v>58.81950869080148</v>
       </c>
       <c r="N14" t="n">
-        <v>52.58417504353032</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>66.25245084926806</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>37.96728067972571</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>72.15870370920156</v>
       </c>
       <c r="S14" t="n">
-        <v>14.83856368501269</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35702,10 +35702,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.771192964252713</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>66.67437126484791</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>69.44556422910037</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.28745664754936</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>43.56583495489158</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="O16" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="P16" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>5.44973009533624</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>72.40356150710434</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35890,22 +35890,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>49.38622323215962</v>
       </c>
       <c r="O17" t="n">
-        <v>49.38622323215974</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="R17" t="n">
-        <v>72.40356150710434</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,10 +35914,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="V17" t="n">
-        <v>20.09194185041514</v>
+        <v>20.0919418504152</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="S20" t="n">
-        <v>72.40356150710434</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="T20" t="n">
-        <v>49.38622323215973</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>72.40356150710434</v>
+        <v>49.38622323215962</v>
       </c>
       <c r="V20" t="n">
-        <v>20.09194185041514</v>
+        <v>20.0919418504152</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36349,7 +36349,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>12.74642708286479</v>
+        <v>12.74642708286484</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36376,22 +36376,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>56.73173799971001</v>
       </c>
       <c r="R23" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.40356150710443</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="T23" t="n">
-        <v>36.63979614929504</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="U23" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>20.09194185041514</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27.22608345604191</v>
+        <v>26.76457009695623</v>
       </c>
       <c r="J26" t="n">
-        <v>245.5500178760439</v>
+        <v>76.45340270397011</v>
       </c>
       <c r="K26" t="n">
         <v>55.50096185238706</v>
       </c>
       <c r="L26" t="n">
-        <v>430.5925962394319</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>65.92501270690067</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>430.5925962394319</v>
       </c>
       <c r="O26" t="n">
-        <v>72.05060382699469</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>373.2501649380371</v>
       </c>
       <c r="Q26" t="n">
         <v>257.3877753557296</v>
       </c>
       <c r="R26" t="n">
-        <v>98.20298904751559</v>
+        <v>32.48656917453317</v>
       </c>
       <c r="S26" t="n">
-        <v>21.94406770111194</v>
+        <v>21.94406770111197</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>47.6962406414078</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>47.69624064140771</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>53.9781197469581</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>53.42567484927601</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36768,16 +36768,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>24.05015010953627</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.1162774007367</v>
+        <v>67.21324905779483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.5493838562439284</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>27.22608345604191</v>
       </c>
       <c r="J29" t="n">
-        <v>76.45340270397008</v>
+        <v>245.5500178760439</v>
       </c>
       <c r="K29" t="n">
-        <v>55.50096185238706</v>
+        <v>379.6463744235518</v>
       </c>
       <c r="L29" t="n">
         <v>430.5925962394319</v>
       </c>
       <c r="M29" t="n">
-        <v>387.3635643382123</v>
+        <v>251.1008252996438</v>
       </c>
       <c r="N29" t="n">
-        <v>68.07251001241225</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>63.13748244544637</v>
+        <v>63.13748244544634</v>
       </c>
       <c r="P29" t="n">
-        <v>373.2501649380371</v>
+        <v>217.1258531756409</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.9453014400052</v>
+        <v>36.16283451014365</v>
       </c>
       <c r="R29" t="n">
-        <v>32.48656917453315</v>
+        <v>32.48656917453314</v>
       </c>
       <c r="S29" t="n">
         <v>21.94406770111194</v>
@@ -36896,13 +36896,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>47.6962406414078</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>141.4198954328362</v>
+        <v>60.68113785102083</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>114.4852896592522</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>33.74653207743684</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>27.22608345604194</v>
+        <v>27.22608345604191</v>
       </c>
       <c r="J32" t="n">
-        <v>76.45340270397011</v>
+        <v>76.45340270397008</v>
       </c>
       <c r="K32" t="n">
-        <v>55.50096185238709</v>
+        <v>55.50096185238704</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="M32" t="n">
-        <v>184.0453177533667</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="N32" t="n">
-        <v>430.5925962394319</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>392.6843359139019</v>
+        <v>222.7127228626058</v>
       </c>
       <c r="P32" t="n">
-        <v>373.2501649380371</v>
+        <v>150.0759287163458</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07278469582491</v>
+        <v>257.3877753557296</v>
       </c>
       <c r="R32" t="n">
-        <v>98.20298904751562</v>
+        <v>32.48656917453314</v>
       </c>
       <c r="S32" t="n">
-        <v>21.94406770111197</v>
+        <v>21.94406770111194</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>25.7143081331219</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>47.69624064140771</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37175,7 +37175,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>21.9819325082859</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -37206,7 +37206,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>72.60946782737355</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>175.1664275102729</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>50.00528031277245</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>52.55167937012702</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.6413952474395</v>
+        <v>50.64139524743941</v>
       </c>
       <c r="J35" t="n">
-        <v>99.86871449536767</v>
+        <v>268.9653296674413</v>
       </c>
       <c r="K35" t="n">
-        <v>78.91627364378465</v>
+        <v>78.91627364378454</v>
       </c>
       <c r="L35" t="n">
-        <v>76.31950930648441</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="M35" t="n">
-        <v>358.1890347323276</v>
+        <v>89.34032449829814</v>
       </c>
       <c r="N35" t="n">
-        <v>334.0482758674586</v>
+        <v>54.85875971811494</v>
       </c>
       <c r="O35" t="n">
-        <v>86.55279423684395</v>
+        <v>86.55279423684384</v>
       </c>
       <c r="P35" t="n">
-        <v>74.86676855795206</v>
+        <v>306.1433707036141</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.48809648722246</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>121.6183008389132</v>
+        <v>55.90188096593064</v>
       </c>
       <c r="S35" t="n">
-        <v>45.35937949250953</v>
+        <v>45.35937949250943</v>
       </c>
       <c r="T35" t="n">
-        <v>23.41531179139757</v>
+        <v>23.41531179139749</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.197970129513519</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37418,7 +37418,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>7.197970129513433</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>92.89710847207284</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>92.89710847207309</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.6413952474395</v>
+        <v>50.64139524743949</v>
       </c>
       <c r="J38" t="n">
-        <v>99.86871449536767</v>
+        <v>191.8053983884333</v>
       </c>
       <c r="K38" t="n">
-        <v>78.91627364378465</v>
+        <v>78.91627364378462</v>
       </c>
       <c r="L38" t="n">
-        <v>272.8858840470845</v>
+        <v>76.31950930648438</v>
       </c>
       <c r="M38" t="n">
-        <v>294.2136053541473</v>
+        <v>316.9783605323455</v>
       </c>
       <c r="N38" t="n">
-        <v>91.48782180380984</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="O38" t="n">
-        <v>86.55279423684395</v>
+        <v>86.55279423684392</v>
       </c>
       <c r="P38" t="n">
-        <v>74.86676855795206</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>244.1740250614348</v>
+        <v>68.48809648722246</v>
       </c>
       <c r="R38" t="n">
-        <v>55.90188096593074</v>
+        <v>121.6183008389132</v>
       </c>
       <c r="S38" t="n">
-        <v>45.35937949250953</v>
+        <v>45.35937949250952</v>
       </c>
       <c r="T38" t="n">
         <v>23.41531179139757</v>
@@ -37652,7 +37652,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>7.197970129513436</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -37664,7 +37664,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>7.197970129513433</v>
       </c>
     </row>
     <row r="40">
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>77.39343153835566</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37692,10 +37692,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>84.11758620392179</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>8.77952226815103</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>15.50367693371717</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>50.64139524743941</v>
       </c>
       <c r="J41" t="n">
-        <v>268.9653296674414</v>
+        <v>99.86871449536758</v>
       </c>
       <c r="K41" t="n">
-        <v>78.91627364378456</v>
+        <v>78.91627364378454</v>
       </c>
       <c r="L41" t="n">
-        <v>76.31950930648432</v>
+        <v>76.31950930648429</v>
       </c>
       <c r="M41" t="n">
-        <v>358.1890347323278</v>
+        <v>89.34032449829814</v>
       </c>
       <c r="N41" t="n">
-        <v>91.48782180380975</v>
+        <v>91.48782180380972</v>
       </c>
       <c r="O41" t="n">
-        <v>86.55279423684387</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="P41" t="n">
-        <v>74.86676855795197</v>
+        <v>338.7474792498251</v>
       </c>
       <c r="Q41" t="n">
-        <v>141.9519353787989</v>
+        <v>44.38030959754487</v>
       </c>
       <c r="R41" t="n">
         <v>121.6183008389131</v>
       </c>
       <c r="S41" t="n">
-        <v>45.35937949250944</v>
+        <v>45.35937949250943</v>
       </c>
       <c r="T41" t="n">
         <v>23.41531179139749</v>
@@ -37841,7 +37841,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>7.197970129513522</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -37883,7 +37883,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>7.197970129513519</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>64.80827245504611</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>28.08883601702698</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>51.41861070473017</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37962,10 +37962,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>23.9646956476414</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>17.5138021197015</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38017,31 +38017,31 @@
         <v>99.86871449536758</v>
       </c>
       <c r="K44" t="n">
-        <v>358.1890347323278</v>
+        <v>149.6094752296926</v>
       </c>
       <c r="L44" t="n">
-        <v>76.31950930648432</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="M44" t="n">
-        <v>89.34032449829817</v>
+        <v>89.34032449829814</v>
       </c>
       <c r="N44" t="n">
-        <v>358.1890347323278</v>
+        <v>91.48782180380972</v>
       </c>
       <c r="O44" t="n">
-        <v>86.55279423684387</v>
+        <v>86.55279423684384</v>
       </c>
       <c r="P44" t="n">
-        <v>74.86676855795197</v>
+        <v>21.3982151839753</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.48809648722238</v>
+        <v>280.803087147127</v>
       </c>
       <c r="R44" t="n">
-        <v>87.05349111953178</v>
+        <v>121.6183008389131</v>
       </c>
       <c r="S44" t="n">
-        <v>45.35937949250944</v>
+        <v>45.35937949250943</v>
       </c>
       <c r="T44" t="n">
         <v>23.41531179139749</v>
@@ -38075,10 +38075,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>7.197970129513522</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>7.197970129513519</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>92.89710847207309</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>6.432414171895315</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>23.9646956476414</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.5138021197015</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>18.93059724794625</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.05559928488861</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
